--- a/docs/Mapping_casi_uso/matrimoni/Matr_015.xlsx
+++ b/docs/Mapping_casi_uso/matrimoni/Matr_015.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1980" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="287">
   <si>
     <t>Sezione</t>
   </si>
@@ -284,6 +284,9 @@
     <t>Officiante</t>
   </si>
   <si>
+    <t>Ufficiale di stato civile delegato a celebrare il matrimonio</t>
+  </si>
+  <si>
     <t>officiante</t>
   </si>
   <si>
@@ -551,7 +554,7 @@
     <t>serie</t>
   </si>
   <si>
-    <t>Pubblicazioni - Omissione di pubblicazione</t>
+    <t>Autorizzazione - omissioni pubblicazioni</t>
   </si>
   <si>
     <t>Data formazione documento</t>
@@ -725,6 +728,21 @@
     <t>60,61</t>
   </si>
   <si>
+    <t>Figlio già riconosciuto dallo sposo</t>
+  </si>
+  <si>
+    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
+  </si>
+  <si>
+    <t>giaRiconosciutoDaPadre</t>
+  </si>
+  <si>
+    <t>Figlio già riconosciuto dalla sposa</t>
+  </si>
+  <si>
+    <t>giaRiconosciutoDaMadre</t>
+  </si>
+  <si>
     <t>Atto Nascita Figlio</t>
   </si>
   <si>
@@ -735,9 +753,6 @@
   </si>
   <si>
     <t>Tipo dichiarazione assenso</t>
-  </si>
-  <si>
-    <t>evento.datiEventoMatrimonio.datiRiconoscimento[0]</t>
   </si>
   <si>
     <t>assensoFiglio</t>
@@ -916,7 +931,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G330"/>
+  <dimension ref="A1:G354"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -2055,7 +2070,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>47</v>
@@ -2064,7 +2079,7 @@
         <v>77</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>9</v>
@@ -2075,7 +2090,7 @@
         <v>89</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>8</v>
@@ -2084,7 +2099,7 @@
         <v>77</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>9</v>
@@ -2095,7 +2110,7 @@
         <v>89</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>47</v>
@@ -2104,7 +2119,7 @@
         <v>77</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>9</v>
@@ -2112,39 +2127,39 @@
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>9</v>
@@ -2152,19 +2167,19 @@
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>9</v>
@@ -2172,19 +2187,19 @@
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>9</v>
@@ -2192,19 +2207,19 @@
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>9</v>
@@ -2212,19 +2227,19 @@
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>9</v>
@@ -2232,19 +2247,19 @@
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>9</v>
@@ -2252,19 +2267,19 @@
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>9</v>
@@ -2272,19 +2287,19 @@
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>9</v>
@@ -2292,19 +2307,19 @@
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F69" s="2" t="s">
         <v>9</v>
@@ -2312,19 +2327,19 @@
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F70" s="2" t="s">
         <v>9</v>
@@ -2332,19 +2347,19 @@
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F71" s="2" t="s">
         <v>9</v>
@@ -2352,19 +2367,19 @@
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F72" s="2" t="s">
         <v>9</v>
@@ -2372,19 +2387,19 @@
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F73" s="2" t="s">
         <v>9</v>
@@ -2392,19 +2407,19 @@
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F74" s="2" t="s">
         <v>9</v>
@@ -2412,19 +2427,19 @@
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F75" s="2" t="s">
         <v>9</v>
@@ -2432,19 +2447,19 @@
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F76" s="2" t="s">
         <v>9</v>
@@ -2452,19 +2467,19 @@
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F77" s="2" t="s">
         <v>9</v>
@@ -2472,19 +2487,19 @@
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F78" s="2" t="s">
         <v>9</v>
@@ -2492,19 +2507,19 @@
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F79" s="2" t="s">
         <v>9</v>
@@ -2512,19 +2527,19 @@
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F80" s="2" t="s">
         <v>9</v>
@@ -2532,19 +2547,19 @@
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F81" s="2" t="s">
         <v>9</v>
@@ -2552,39 +2567,39 @@
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F83" s="2" t="s">
         <v>9</v>
@@ -2592,19 +2607,19 @@
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F84" s="2" t="s">
         <v>9</v>
@@ -2612,19 +2627,19 @@
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F85" s="2" t="s">
         <v>9</v>
@@ -2632,19 +2647,19 @@
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F86" s="2" t="s">
         <v>9</v>
@@ -2652,19 +2667,19 @@
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F87" s="2" t="s">
         <v>9</v>
@@ -2672,19 +2687,19 @@
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F88" s="2" t="s">
         <v>9</v>
@@ -2692,19 +2707,19 @@
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F89" s="2" t="s">
         <v>9</v>
@@ -2712,19 +2727,19 @@
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>9</v>
@@ -2732,19 +2747,19 @@
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>9</v>
@@ -2752,19 +2767,19 @@
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F92" s="2" t="s">
         <v>9</v>
@@ -2772,19 +2787,19 @@
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>9</v>
@@ -2792,19 +2807,19 @@
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>9</v>
@@ -2812,19 +2827,19 @@
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>9</v>
@@ -2832,19 +2847,19 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F96" s="2" t="s">
         <v>9</v>
@@ -2852,19 +2867,19 @@
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>9</v>
@@ -2872,19 +2887,19 @@
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>9</v>
@@ -2892,19 +2907,19 @@
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>9</v>
@@ -2912,19 +2927,19 @@
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>9</v>
@@ -2932,19 +2947,19 @@
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F101" s="2" t="s">
         <v>9</v>
@@ -2952,19 +2967,19 @@
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>9</v>
@@ -2972,19 +2987,19 @@
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>47</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>9</v>
@@ -2992,7 +3007,7 @@
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B104" s="2" t="s">
         <v>64</v>
@@ -3001,7 +3016,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>65</v>
@@ -3012,7 +3027,7 @@
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B105" s="2" t="s">
         <v>66</v>
@@ -3021,10 +3036,10 @@
         <v>8</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F105" s="2" t="s">
         <v>9</v>
@@ -3032,7 +3047,7 @@
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B106" s="2" t="s">
         <v>68</v>
@@ -3041,7 +3056,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>69</v>
@@ -3052,7 +3067,7 @@
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B107" s="2" t="s">
         <v>70</v>
@@ -3061,10 +3076,10 @@
         <v>8</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F107" s="2" t="s">
         <v>24</v>
@@ -3072,19 +3087,19 @@
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>24</v>
@@ -3092,19 +3107,19 @@
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>24</v>
@@ -3112,10 +3127,10 @@
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>8</v>
@@ -3124,7 +3139,7 @@
         <v>77</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>9</v>
@@ -3132,16 +3147,16 @@
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>65</v>
@@ -3152,7 +3167,7 @@
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B112" s="2" t="s">
         <v>66</v>
@@ -3161,10 +3176,10 @@
         <v>8</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F112" s="2" t="s">
         <v>9</v>
@@ -3172,7 +3187,7 @@
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>68</v>
@@ -3181,7 +3196,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>69</v>
@@ -3192,7 +3207,7 @@
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>70</v>
@@ -3201,10 +3216,10 @@
         <v>8</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F114" s="2" t="s">
         <v>24</v>
@@ -3212,19 +3227,19 @@
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>24</v>
@@ -3232,19 +3247,19 @@
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D116" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C116" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="F116" s="2" t="s">
         <v>24</v>
@@ -3252,19 +3267,19 @@
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>9</v>
@@ -3272,19 +3287,19 @@
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>9</v>
@@ -3292,19 +3307,19 @@
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F119" s="2" t="s">
         <v>9</v>
@@ -3312,19 +3327,19 @@
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F120" s="2" t="s">
         <v>9</v>
@@ -3332,19 +3347,19 @@
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F121" s="2" t="s">
         <v>9</v>
@@ -3352,19 +3367,19 @@
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F122" s="2" t="s">
         <v>9</v>
@@ -3372,16 +3387,16 @@
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>49</v>
@@ -3392,19 +3407,19 @@
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F124" s="2" t="s">
         <v>9</v>
@@ -3412,16 +3427,16 @@
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E125" s="2" t="s">
         <v>51</v>
@@ -3432,19 +3447,19 @@
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>9</v>
@@ -3452,19 +3467,19 @@
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>9</v>
@@ -3472,19 +3487,19 @@
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F128" s="2" t="s">
         <v>9</v>
@@ -3492,19 +3507,19 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F129" s="2" t="s">
         <v>25</v>
@@ -3512,19 +3527,19 @@
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>25</v>
@@ -3532,19 +3547,19 @@
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F131" s="2" t="s">
         <v>9</v>
@@ -3552,19 +3567,19 @@
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>9</v>
@@ -3572,19 +3587,19 @@
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>25</v>
@@ -3592,19 +3607,19 @@
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>9</v>
@@ -3612,19 +3627,19 @@
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>25</v>
@@ -3632,19 +3647,19 @@
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>9</v>
@@ -3652,19 +3667,19 @@
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F137" s="2" t="s">
         <v>9</v>
@@ -3672,19 +3687,19 @@
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>9</v>
@@ -3692,19 +3707,19 @@
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>9</v>
@@ -3712,19 +3727,19 @@
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F140" s="2" t="s">
         <v>9</v>
@@ -3732,19 +3747,19 @@
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F141" s="2" t="s">
         <v>9</v>
@@ -3752,16 +3767,16 @@
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>49</v>
@@ -3772,19 +3787,19 @@
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>9</v>
@@ -3792,16 +3807,16 @@
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E144" s="2" t="s">
         <v>51</v>
@@ -3812,19 +3827,19 @@
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>9</v>
@@ -3832,19 +3847,19 @@
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F146" s="2" t="s">
         <v>9</v>
@@ -3852,19 +3867,19 @@
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E147" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F147" s="2" t="s">
         <v>9</v>
@@ -3872,19 +3887,19 @@
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C148" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D148" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E148" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F148" s="2" t="s">
         <v>26</v>
@@ -3892,19 +3907,19 @@
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C149" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D149" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F149" s="2" t="s">
         <v>26</v>
@@ -3912,19 +3927,19 @@
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C150" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D150" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E150" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F150" s="2" t="s">
         <v>26</v>
@@ -3932,19 +3947,19 @@
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D151" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E151" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F151" s="2" t="s">
         <v>9</v>
@@ -3952,19 +3967,19 @@
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F152" s="2" t="s">
         <v>9</v>
@@ -3972,19 +3987,19 @@
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D153" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F153" s="2" t="s">
         <v>9</v>
@@ -3992,19 +4007,19 @@
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D154" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E154" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F154" s="2" t="s">
         <v>9</v>
@@ -4012,19 +4027,19 @@
     </row>
     <row r="155">
       <c r="A155" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F155" s="2" t="s">
         <v>9</v>
@@ -4032,19 +4047,19 @@
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F156" s="2" t="s">
         <v>9</v>
@@ -4052,19 +4067,19 @@
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>9</v>
@@ -4072,19 +4087,19 @@
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>9</v>
@@ -4092,19 +4107,19 @@
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C159" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F159" s="2" t="s">
         <v>9</v>
@@ -4112,19 +4127,19 @@
     </row>
     <row r="160">
       <c r="A160" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C160" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F160" s="2" t="s">
         <v>9</v>
@@ -4132,16 +4147,16 @@
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C161" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E161" s="2" t="s">
         <v>49</v>
@@ -4152,19 +4167,19 @@
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F162" s="2" t="s">
         <v>9</v>
@@ -4172,16 +4187,16 @@
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>51</v>
@@ -4192,19 +4207,19 @@
     </row>
     <row r="164">
       <c r="A164" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F164" s="2" t="s">
         <v>9</v>
@@ -4212,19 +4227,19 @@
     </row>
     <row r="165">
       <c r="A165" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F165" s="2" t="s">
         <v>9</v>
@@ -4232,19 +4247,19 @@
     </row>
     <row r="166">
       <c r="A166" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E166" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F166" s="2" t="s">
         <v>9</v>
@@ -4252,19 +4267,19 @@
     </row>
     <row r="167">
       <c r="A167" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E167" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F167" s="2" t="s">
         <v>9</v>
@@ -4272,19 +4287,19 @@
     </row>
     <row r="168">
       <c r="A168" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F168" s="2" t="s">
         <v>9</v>
@@ -4292,19 +4307,19 @@
     </row>
     <row r="169">
       <c r="A169" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F169" s="2" t="s">
         <v>9</v>
@@ -4312,19 +4327,19 @@
     </row>
     <row r="170">
       <c r="A170" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F170" s="2" t="s">
         <v>9</v>
@@ -4332,19 +4347,19 @@
     </row>
     <row r="171">
       <c r="A171" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E171" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F171" s="2" t="s">
         <v>9</v>
@@ -4352,19 +4367,19 @@
     </row>
     <row r="172">
       <c r="A172" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C172" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F172" s="2" t="s">
         <v>9</v>
@@ -4372,19 +4387,19 @@
     </row>
     <row r="173">
       <c r="A173" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>9</v>
@@ -4392,19 +4407,19 @@
     </row>
     <row r="174">
       <c r="A174" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F174" s="2" t="s">
         <v>9</v>
@@ -4412,19 +4427,19 @@
     </row>
     <row r="175">
       <c r="A175" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D175" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>44</v>
@@ -4432,19 +4447,19 @@
     </row>
     <row r="176">
       <c r="A176" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F176" s="2" t="s">
         <v>44</v>
@@ -4452,19 +4467,19 @@
     </row>
     <row r="177">
       <c r="A177" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>44</v>
@@ -4472,19 +4487,19 @@
     </row>
     <row r="178">
       <c r="A178" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F178" s="2" t="s">
         <v>9</v>
@@ -4492,19 +4507,19 @@
     </row>
     <row r="179">
       <c r="A179" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E179" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F179" s="2" t="s">
         <v>9</v>
@@ -4512,19 +4527,19 @@
     </row>
     <row r="180">
       <c r="A180" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E180" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F180" s="2" t="s">
         <v>9</v>
@@ -4532,19 +4547,19 @@
     </row>
     <row r="181">
       <c r="A181" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E181" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F181" s="2" t="s">
         <v>9</v>
@@ -4552,19 +4567,19 @@
     </row>
     <row r="182">
       <c r="A182" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>26</v>
@@ -4572,19 +4587,19 @@
     </row>
     <row r="183">
       <c r="A183" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F183" s="2" t="s">
         <v>26</v>
@@ -4592,19 +4607,19 @@
     </row>
     <row r="184">
       <c r="A184" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F184" s="2" t="s">
         <v>26</v>
@@ -4612,19 +4627,19 @@
     </row>
     <row r="185">
       <c r="A185" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E185" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F185" s="2" t="s">
         <v>9</v>
@@ -4632,19 +4647,19 @@
     </row>
     <row r="186">
       <c r="A186" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F186" s="2" t="s">
         <v>9</v>
@@ -4652,19 +4667,19 @@
     </row>
     <row r="187">
       <c r="A187" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C187" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>9</v>
@@ -4672,19 +4687,19 @@
     </row>
     <row r="188">
       <c r="A188" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C188" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>9</v>
@@ -4692,19 +4707,19 @@
     </row>
     <row r="189">
       <c r="A189" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F189" s="2" t="s">
         <v>27</v>
@@ -4712,19 +4727,19 @@
     </row>
     <row r="190">
       <c r="A190" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F190" s="2" t="s">
         <v>27</v>
@@ -4732,19 +4747,19 @@
     </row>
     <row r="191">
       <c r="A191" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F191" s="2" t="s">
         <v>27</v>
@@ -4752,19 +4767,19 @@
     </row>
     <row r="192">
       <c r="A192" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F192" s="2" t="s">
         <v>9</v>
@@ -4772,19 +4787,19 @@
     </row>
     <row r="193">
       <c r="A193" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F193" s="2" t="s">
         <v>9</v>
@@ -4792,19 +4807,19 @@
     </row>
     <row r="194">
       <c r="A194" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>9</v>
@@ -4812,19 +4827,19 @@
     </row>
     <row r="195">
       <c r="A195" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F195" s="2" t="s">
         <v>9</v>
@@ -4832,19 +4847,19 @@
     </row>
     <row r="196">
       <c r="A196" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>28</v>
@@ -4852,19 +4867,19 @@
     </row>
     <row r="197">
       <c r="A197" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E197" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F197" s="2" t="s">
         <v>28</v>
@@ -4872,19 +4887,19 @@
     </row>
     <row r="198">
       <c r="A198" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E198" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F198" s="2" t="s">
         <v>28</v>
@@ -4892,19 +4907,19 @@
     </row>
     <row r="199">
       <c r="A199" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>9</v>
@@ -4912,19 +4927,19 @@
     </row>
     <row r="200">
       <c r="A200" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E200" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F200" s="2" t="s">
         <v>9</v>
@@ -4932,19 +4947,19 @@
     </row>
     <row r="201">
       <c r="A201" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>9</v>
@@ -4952,19 +4967,19 @@
     </row>
     <row r="202">
       <c r="A202" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E202" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F202" s="2" t="s">
         <v>9</v>
@@ -4972,19 +4987,19 @@
     </row>
     <row r="203">
       <c r="A203" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C203" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E203" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F203" s="2" t="s">
         <v>29</v>
@@ -4992,19 +5007,19 @@
     </row>
     <row r="204">
       <c r="A204" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>29</v>
@@ -5012,19 +5027,19 @@
     </row>
     <row r="205">
       <c r="A205" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>29</v>
@@ -5032,19 +5047,19 @@
     </row>
     <row r="206">
       <c r="A206" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>9</v>
@@ -5052,19 +5067,19 @@
     </row>
     <row r="207">
       <c r="A207" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C207" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D207" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>9</v>
@@ -5072,19 +5087,19 @@
     </row>
     <row r="208">
       <c r="A208" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D208" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>9</v>
@@ -5092,19 +5107,19 @@
     </row>
     <row r="209">
       <c r="A209" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E209" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F209" s="2" t="s">
         <v>9</v>
@@ -5112,39 +5127,39 @@
     </row>
     <row r="210">
       <c r="A210" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D210" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F210" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D211" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E211" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F211" s="2" t="s">
         <v>32</v>
@@ -5152,19 +5167,19 @@
     </row>
     <row r="212">
       <c r="A212" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D212" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E212" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F212" s="2" t="s">
         <v>32</v>
@@ -5172,19 +5187,19 @@
     </row>
     <row r="213">
       <c r="A213" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D213" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E213" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F213" s="2" t="s">
         <v>32</v>
@@ -5192,19 +5207,19 @@
     </row>
     <row r="214">
       <c r="A214" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D214" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>9</v>
@@ -5212,19 +5227,19 @@
     </row>
     <row r="215">
       <c r="A215" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C215" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D215" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>9</v>
@@ -5232,19 +5247,19 @@
     </row>
     <row r="216">
       <c r="A216" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D216" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>9</v>
@@ -5252,19 +5267,19 @@
     </row>
     <row r="217">
       <c r="A217" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D217" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E217" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F217" s="2" t="s">
         <v>30</v>
@@ -5272,19 +5287,19 @@
     </row>
     <row r="218">
       <c r="A218" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E218" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F218" s="2" t="s">
         <v>30</v>
@@ -5292,19 +5307,19 @@
     </row>
     <row r="219">
       <c r="A219" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E219" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F219" s="2" t="s">
         <v>9</v>
@@ -5312,19 +5327,19 @@
     </row>
     <row r="220">
       <c r="A220" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F220" s="2" t="s">
         <v>30</v>
@@ -5332,19 +5347,19 @@
     </row>
     <row r="221">
       <c r="A221" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E221" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F221" s="2" t="s">
         <v>9</v>
@@ -5352,19 +5367,19 @@
     </row>
     <row r="222">
       <c r="A222" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E222" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F222" s="2" t="s">
         <v>30</v>
@@ -5372,19 +5387,19 @@
     </row>
     <row r="223">
       <c r="A223" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E223" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F223" s="2" t="s">
         <v>9</v>
@@ -5392,19 +5407,19 @@
     </row>
     <row r="224">
       <c r="A224" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F224" s="2" t="s">
         <v>30</v>
@@ -5412,19 +5427,19 @@
     </row>
     <row r="225">
       <c r="A225" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F225" s="2" t="s">
         <v>9</v>
@@ -5432,19 +5447,19 @@
     </row>
     <row r="226">
       <c r="A226" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E226" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F226" s="2" t="s">
         <v>30</v>
@@ -5452,19 +5467,19 @@
     </row>
     <row r="227">
       <c r="A227" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F227" s="2" t="s">
         <v>9</v>
@@ -5472,19 +5487,19 @@
     </row>
     <row r="228">
       <c r="A228" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F228" s="2" t="s">
         <v>9</v>
@@ -5492,19 +5507,19 @@
     </row>
     <row r="229">
       <c r="A229" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F229" s="2" t="s">
         <v>9</v>
@@ -5512,19 +5527,19 @@
     </row>
     <row r="230">
       <c r="A230" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F230" s="2" t="s">
         <v>9</v>
@@ -5532,19 +5547,19 @@
     </row>
     <row r="231">
       <c r="A231" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F231" s="2" t="s">
         <v>9</v>
@@ -5552,19 +5567,19 @@
     </row>
     <row r="232">
       <c r="A232" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F232" s="2" t="s">
         <v>9</v>
@@ -5572,19 +5587,19 @@
     </row>
     <row r="233">
       <c r="A233" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E233" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F233" s="2" t="s">
         <v>9</v>
@@ -5592,19 +5607,19 @@
     </row>
     <row r="234">
       <c r="A234" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F234" s="2" t="s">
         <v>9</v>
@@ -5612,19 +5627,19 @@
     </row>
     <row r="235">
       <c r="A235" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F235" s="2" t="s">
         <v>9</v>
@@ -5632,19 +5647,19 @@
     </row>
     <row r="236">
       <c r="A236" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E236" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F236" s="2" t="s">
         <v>9</v>
@@ -5652,19 +5667,19 @@
     </row>
     <row r="237">
       <c r="A237" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F237" s="2" t="s">
         <v>9</v>
@@ -5672,19 +5687,19 @@
     </row>
     <row r="238">
       <c r="A238" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F238" s="2" t="s">
         <v>9</v>
@@ -5692,19 +5707,19 @@
     </row>
     <row r="239">
       <c r="A239" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="F239" s="2" t="s">
         <v>9</v>
@@ -5712,19 +5727,19 @@
     </row>
     <row r="240">
       <c r="A240" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>30</v>
@@ -5732,19 +5747,19 @@
     </row>
     <row r="241">
       <c r="A241" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>9</v>
@@ -5752,19 +5767,19 @@
     </row>
     <row r="242">
       <c r="A242" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F242" s="2" t="s">
         <v>9</v>
@@ -5772,19 +5787,19 @@
     </row>
     <row r="243">
       <c r="A243" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C243" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>9</v>
@@ -5792,19 +5807,19 @@
     </row>
     <row r="244">
       <c r="A244" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C244" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>9</v>
@@ -5812,19 +5827,19 @@
     </row>
     <row r="245">
       <c r="A245" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>9</v>
@@ -5832,59 +5847,59 @@
     </row>
     <row r="246">
       <c r="A246" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>9</v>
@@ -5892,19 +5907,19 @@
     </row>
     <row r="249">
       <c r="A249" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>9</v>
@@ -5912,19 +5927,19 @@
     </row>
     <row r="250">
       <c r="A250" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>9</v>
@@ -5932,19 +5947,19 @@
     </row>
     <row r="251">
       <c r="A251" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>9</v>
@@ -5952,19 +5967,19 @@
     </row>
     <row r="252">
       <c r="A252" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>9</v>
@@ -5972,19 +5987,19 @@
     </row>
     <row r="253">
       <c r="A253" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>9</v>
@@ -5992,19 +6007,19 @@
     </row>
     <row r="254">
       <c r="A254" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>9</v>
@@ -6012,19 +6027,19 @@
     </row>
     <row r="255">
       <c r="A255" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>9</v>
@@ -6032,19 +6047,19 @@
     </row>
     <row r="256">
       <c r="A256" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>9</v>
@@ -6052,19 +6067,19 @@
     </row>
     <row r="257">
       <c r="A257" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>9</v>
@@ -6072,19 +6087,19 @@
     </row>
     <row r="258">
       <c r="A258" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F258" s="2" t="s">
         <v>9</v>
@@ -6092,19 +6107,19 @@
     </row>
     <row r="259">
       <c r="A259" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F259" s="2" t="s">
         <v>9</v>
@@ -6112,19 +6127,19 @@
     </row>
     <row r="260">
       <c r="A260" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>9</v>
@@ -6132,19 +6147,19 @@
     </row>
     <row r="261">
       <c r="A261" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>9</v>
@@ -6152,19 +6167,19 @@
     </row>
     <row r="262">
       <c r="A262" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>9</v>
@@ -6172,19 +6187,19 @@
     </row>
     <row r="263">
       <c r="A263" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>9</v>
@@ -6192,19 +6207,19 @@
     </row>
     <row r="264">
       <c r="A264" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C264" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>9</v>
@@ -6212,19 +6227,19 @@
     </row>
     <row r="265">
       <c r="A265" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>9</v>
@@ -6232,19 +6247,19 @@
     </row>
     <row r="266">
       <c r="A266" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>9</v>
@@ -6252,19 +6267,19 @@
     </row>
     <row r="267">
       <c r="A267" s="2" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>9</v>
@@ -6272,19 +6287,19 @@
     </row>
     <row r="268">
       <c r="A268" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>156</v>
+        <v>238</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>158</v>
+        <v>240</v>
       </c>
       <c r="F268" s="2" t="s">
         <v>9</v>
@@ -6292,19 +6307,19 @@
     </row>
     <row r="269">
       <c r="A269" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>160</v>
+        <v>242</v>
       </c>
       <c r="F269" s="2" t="s">
         <v>9</v>
@@ -6312,59 +6327,59 @@
     </row>
     <row r="270">
       <c r="A270" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B270" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C270" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D270" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E270" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F270" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B270" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C270" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D270" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E270" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="F270" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B271" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C271" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D271" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="E271" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F271" s="2" t="s">
         <v>237</v>
-      </c>
-      <c r="B271" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="C271" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D271" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E271" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="F271" s="2" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>165</v>
+        <v>101</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E272" s="2" t="s">
-        <v>166</v>
+        <v>102</v>
       </c>
       <c r="F272" s="2" t="s">
         <v>9</v>
@@ -6372,19 +6387,19 @@
     </row>
     <row r="273">
       <c r="A273" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>167</v>
+        <v>103</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>168</v>
+        <v>104</v>
       </c>
       <c r="F273" s="2" t="s">
         <v>9</v>
@@ -6392,19 +6407,19 @@
     </row>
     <row r="274">
       <c r="A274" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>169</v>
+        <v>105</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E274" s="2" t="s">
-        <v>49</v>
+        <v>106</v>
       </c>
       <c r="F274" s="2" t="s">
         <v>9</v>
@@ -6412,19 +6427,19 @@
     </row>
     <row r="275">
       <c r="A275" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>171</v>
+        <v>108</v>
       </c>
       <c r="F275" s="2" t="s">
         <v>9</v>
@@ -6432,19 +6447,19 @@
     </row>
     <row r="276">
       <c r="A276" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>172</v>
+        <v>109</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E276" s="2" t="s">
-        <v>51</v>
+        <v>110</v>
       </c>
       <c r="F276" s="2" t="s">
         <v>9</v>
@@ -6452,19 +6467,19 @@
     </row>
     <row r="277">
       <c r="A277" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>173</v>
+        <v>111</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E277" s="2" t="s">
-        <v>174</v>
+        <v>112</v>
       </c>
       <c r="F277" s="2" t="s">
         <v>9</v>
@@ -6472,59 +6487,59 @@
     </row>
     <row r="278">
       <c r="A278" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E278" s="2" t="s">
-        <v>176</v>
+        <v>114</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>177</v>
+        <v>115</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>178</v>
+        <v>116</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>240</v>
+        <v>117</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E280" s="2" t="s">
-        <v>242</v>
+        <v>118</v>
       </c>
       <c r="F280" s="2" t="s">
         <v>9</v>
@@ -6532,39 +6547,39 @@
     </row>
     <row r="281">
       <c r="A281" s="2" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>243</v>
+        <v>119</v>
       </c>
       <c r="C281" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E281" s="2" t="s">
-        <v>244</v>
+        <v>120</v>
       </c>
       <c r="F281" s="2" t="s">
-        <v>236</v>
+        <v>9</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>156</v>
+        <v>121</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E282" s="2" t="s">
-        <v>158</v>
+        <v>122</v>
       </c>
       <c r="F282" s="2" t="s">
         <v>9</v>
@@ -6572,19 +6587,19 @@
     </row>
     <row r="283">
       <c r="A283" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>159</v>
+        <v>123</v>
       </c>
       <c r="C283" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E283" s="2" t="s">
-        <v>160</v>
+        <v>124</v>
       </c>
       <c r="F283" s="2" t="s">
         <v>9</v>
@@ -6592,19 +6607,19 @@
     </row>
     <row r="284">
       <c r="A284" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>161</v>
+        <v>125</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E284" s="2" t="s">
-        <v>162</v>
+        <v>126</v>
       </c>
       <c r="F284" s="2" t="s">
         <v>9</v>
@@ -6612,19 +6627,19 @@
     </row>
     <row r="285">
       <c r="A285" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>164</v>
+        <v>128</v>
       </c>
       <c r="F285" s="2" t="s">
         <v>9</v>
@@ -6632,19 +6647,19 @@
     </row>
     <row r="286">
       <c r="A286" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>165</v>
+        <v>129</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>166</v>
+        <v>130</v>
       </c>
       <c r="F286" s="2" t="s">
         <v>9</v>
@@ -6652,19 +6667,19 @@
     </row>
     <row r="287">
       <c r="A287" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>167</v>
+        <v>131</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>168</v>
+        <v>132</v>
       </c>
       <c r="F287" s="2" t="s">
         <v>9</v>
@@ -6672,19 +6687,19 @@
     </row>
     <row r="288">
       <c r="A288" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>169</v>
+        <v>133</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>49</v>
+        <v>134</v>
       </c>
       <c r="F288" s="2" t="s">
         <v>9</v>
@@ -6692,19 +6707,19 @@
     </row>
     <row r="289">
       <c r="A289" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>171</v>
+        <v>136</v>
       </c>
       <c r="F289" s="2" t="s">
         <v>9</v>
@@ -6712,19 +6727,19 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>172</v>
+        <v>137</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>51</v>
+        <v>138</v>
       </c>
       <c r="F290" s="2" t="s">
         <v>9</v>
@@ -6732,19 +6747,19 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
       <c r="F291" s="2" t="s">
         <v>9</v>
@@ -6752,19 +6767,19 @@
     </row>
     <row r="292">
       <c r="A292" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>176</v>
+        <v>159</v>
       </c>
       <c r="F292" s="2" t="s">
         <v>9</v>
@@ -6772,19 +6787,19 @@
     </row>
     <row r="293">
       <c r="A293" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>177</v>
+        <v>160</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>178</v>
+        <v>161</v>
       </c>
       <c r="F293" s="2" t="s">
         <v>9</v>
@@ -6792,19 +6807,19 @@
     </row>
     <row r="294">
       <c r="A294" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>91</v>
+        <v>162</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>97</v>
+        <v>163</v>
       </c>
       <c r="F294" s="2" t="s">
         <v>9</v>
@@ -6812,19 +6827,19 @@
     </row>
     <row r="295">
       <c r="A295" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>93</v>
+        <v>164</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>99</v>
+        <v>165</v>
       </c>
       <c r="F295" s="2" t="s">
         <v>9</v>
@@ -6832,19 +6847,19 @@
     </row>
     <row r="296">
       <c r="A296" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>100</v>
+        <v>166</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>101</v>
+        <v>167</v>
       </c>
       <c r="F296" s="2" t="s">
         <v>9</v>
@@ -6852,19 +6867,19 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>102</v>
+        <v>168</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="F297" s="2" t="s">
         <v>9</v>
@@ -6872,19 +6887,19 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="F298" s="2" t="s">
         <v>9</v>
@@ -6892,19 +6907,19 @@
     </row>
     <row r="299">
       <c r="A299" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>106</v>
+        <v>171</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>107</v>
+        <v>172</v>
       </c>
       <c r="F299" s="2" t="s">
         <v>9</v>
@@ -6912,19 +6927,19 @@
     </row>
     <row r="300">
       <c r="A300" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>108</v>
+        <v>173</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E300" s="2" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
       <c r="F300" s="2" t="s">
         <v>9</v>
@@ -6932,19 +6947,19 @@
     </row>
     <row r="301">
       <c r="A301" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>110</v>
+        <v>174</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E301" s="2" t="s">
-        <v>111</v>
+        <v>175</v>
       </c>
       <c r="F301" s="2" t="s">
         <v>9</v>
@@ -6952,59 +6967,59 @@
     </row>
     <row r="302">
       <c r="A302" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>113</v>
+        <v>177</v>
       </c>
       <c r="F302" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>114</v>
+        <v>178</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>115</v>
+        <v>179</v>
       </c>
       <c r="F303" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B304" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C304" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D304" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E304" s="2" t="s">
         <v>247</v>
-      </c>
-      <c r="B304" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="C304" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D304" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="E304" s="2" t="s">
-        <v>117</v>
       </c>
       <c r="F304" s="2" t="s">
         <v>9</v>
@@ -7012,39 +7027,39 @@
     </row>
     <row r="305">
       <c r="A305" s="2" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>118</v>
+        <v>248</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="E305" s="2" t="s">
-        <v>119</v>
+        <v>249</v>
       </c>
       <c r="F305" s="2" t="s">
-        <v>9</v>
+        <v>237</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>120</v>
+        <v>157</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>121</v>
+        <v>159</v>
       </c>
       <c r="F306" s="2" t="s">
         <v>9</v>
@@ -7052,19 +7067,19 @@
     </row>
     <row r="307">
       <c r="A307" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>122</v>
+        <v>160</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="F307" s="2" t="s">
         <v>9</v>
@@ -7072,19 +7087,19 @@
     </row>
     <row r="308">
       <c r="A308" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>124</v>
+        <v>162</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E308" s="2" t="s">
-        <v>125</v>
+        <v>163</v>
       </c>
       <c r="F308" s="2" t="s">
         <v>9</v>
@@ -7092,19 +7107,19 @@
     </row>
     <row r="309">
       <c r="A309" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>126</v>
+        <v>164</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>127</v>
+        <v>165</v>
       </c>
       <c r="F309" s="2" t="s">
         <v>9</v>
@@ -7112,19 +7127,19 @@
     </row>
     <row r="310">
       <c r="A310" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>128</v>
+        <v>166</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E310" s="2" t="s">
-        <v>129</v>
+        <v>167</v>
       </c>
       <c r="F310" s="2" t="s">
         <v>9</v>
@@ -7132,19 +7147,19 @@
     </row>
     <row r="311">
       <c r="A311" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E311" s="2" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="F311" s="2" t="s">
         <v>9</v>
@@ -7152,19 +7167,19 @@
     </row>
     <row r="312">
       <c r="A312" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>132</v>
+        <v>170</v>
       </c>
       <c r="C312" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>133</v>
+        <v>49</v>
       </c>
       <c r="F312" s="2" t="s">
         <v>9</v>
@@ -7172,19 +7187,19 @@
     </row>
     <row r="313">
       <c r="A313" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="C313" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="F313" s="2" t="s">
         <v>9</v>
@@ -7192,19 +7207,19 @@
     </row>
     <row r="314">
       <c r="A314" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="C314" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="F314" s="2" t="s">
         <v>9</v>
@@ -7212,19 +7227,19 @@
     </row>
     <row r="315">
       <c r="A315" s="2" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E315" s="2" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="F315" s="2" t="s">
         <v>9</v>
@@ -7232,19 +7247,19 @@
     </row>
     <row r="316">
       <c r="A316" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>250</v>
+        <v>176</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>251</v>
+        <v>177</v>
       </c>
       <c r="F316" s="2" t="s">
         <v>9</v>
@@ -7252,19 +7267,19 @@
     </row>
     <row r="317">
       <c r="A317" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>252</v>
+        <v>178</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>77</v>
+        <v>251</v>
       </c>
       <c r="E317" s="2" t="s">
-        <v>253</v>
+        <v>179</v>
       </c>
       <c r="F317" s="2" t="s">
         <v>9</v>
@@ -7272,19 +7287,19 @@
     </row>
     <row r="318">
       <c r="A318" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>254</v>
+        <v>92</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>255</v>
+        <v>98</v>
       </c>
       <c r="F318" s="2" t="s">
         <v>9</v>
@@ -7292,19 +7307,19 @@
     </row>
     <row r="319">
       <c r="A319" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>256</v>
+        <v>94</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>257</v>
+        <v>100</v>
       </c>
       <c r="F319" s="2" t="s">
         <v>9</v>
@@ -7312,19 +7327,19 @@
     </row>
     <row r="320">
       <c r="A320" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>258</v>
+        <v>101</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>259</v>
+        <v>102</v>
       </c>
       <c r="F320" s="2" t="s">
         <v>9</v>
@@ -7332,19 +7347,19 @@
     </row>
     <row r="321">
       <c r="A321" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>260</v>
+        <v>103</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="F321" s="2" t="s">
         <v>9</v>
@@ -7352,19 +7367,19 @@
     </row>
     <row r="322">
       <c r="A322" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>262</v>
+        <v>105</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E322" s="2" t="s">
-        <v>263</v>
+        <v>106</v>
       </c>
       <c r="F322" s="2" t="s">
         <v>9</v>
@@ -7372,19 +7387,19 @@
     </row>
     <row r="323">
       <c r="A323" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>264</v>
+        <v>107</v>
       </c>
       <c r="C323" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="E323" s="2" t="s">
-        <v>265</v>
+        <v>108</v>
       </c>
       <c r="F323" s="2" t="s">
         <v>9</v>
@@ -7392,19 +7407,19 @@
     </row>
     <row r="324">
       <c r="A324" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>266</v>
+        <v>109</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E324" s="2" t="s">
-        <v>267</v>
+        <v>110</v>
       </c>
       <c r="F324" s="2" t="s">
         <v>9</v>
@@ -7412,19 +7427,19 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>268</v>
+        <v>111</v>
       </c>
       <c r="C325" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>269</v>
+        <v>112</v>
       </c>
       <c r="F325" s="2" t="s">
         <v>9</v>
@@ -7432,19 +7447,19 @@
     </row>
     <row r="326">
       <c r="A326" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>270</v>
+        <v>113</v>
       </c>
       <c r="C326" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>241</v>
+        <v>253</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>271</v>
+        <v>114</v>
       </c>
       <c r="F326" s="2" t="s">
         <v>9</v>
@@ -7452,19 +7467,19 @@
     </row>
     <row r="327">
       <c r="A327" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>272</v>
+        <v>115</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>273</v>
+        <v>116</v>
       </c>
       <c r="F327" s="2" t="s">
         <v>9</v>
@@ -7472,19 +7487,19 @@
     </row>
     <row r="328">
       <c r="A328" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>274</v>
+        <v>117</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
       <c r="D328" s="2" t="s">
-        <v>215</v>
+        <v>253</v>
       </c>
       <c r="E328" s="2" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="F328" s="2" t="s">
         <v>9</v>
@@ -7492,19 +7507,19 @@
     </row>
     <row r="329">
       <c r="A329" s="2" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>277</v>
+        <v>119</v>
       </c>
       <c r="C329" s="2" t="s">
         <v>8</v>
       </c>
       <c r="D329" s="2" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="E329" s="2" t="s">
-        <v>279</v>
+        <v>120</v>
       </c>
       <c r="F329" s="2" t="s">
         <v>9</v>
@@ -7512,21 +7527,501 @@
     </row>
     <row r="330">
       <c r="A330" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B330" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C330" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D330" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E330" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B331" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D331" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E331" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B332" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="C332" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D332" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E332" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B333" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D333" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E333" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B334" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C334" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D334" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E334" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B335" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D335" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E335" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B336" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C336" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D336" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E336" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="F336" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B337" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D337" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E337" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="F337" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C338" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D338" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E338" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="F338" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B339" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D339" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="E339" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="F339" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D340" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E340" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="F340" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D341" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E341" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="F341" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D342" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E342" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="F342" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B343" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D343" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E343" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="F343" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B345" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C345" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D345" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E345" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="F345" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B346" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C346" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D346" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E346" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="F346" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B347" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C347" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D347" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E347" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B348" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C348" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D348" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E348" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B349" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C349" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D349" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E349" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B350" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C350" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D350" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E350" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B330" s="2" t="s">
+      <c r="F350" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B351" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C351" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D351" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E351" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B352" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C352" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D352" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E352" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="C330" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D330" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="E330" s="2" t="s">
+      <c r="F352" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="F330" s="2" t="s">
+      <c r="B353" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C353" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D353" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E353" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B354" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C354" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D354" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="E354" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="F354" s="2" t="s">
         <v>9</v>
       </c>
     </row>
